--- a/Faculty.xlsx
+++ b/Faculty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AC792F-2ECE-4E81-9894-302FC597C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330AC034-F010-4B47-82E9-CD9A6F208CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34486ADC-D581-4CF1-ACB2-1522B910C1C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{34486ADC-D581-4CF1-ACB2-1522B910C1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>FacNo</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>MILLS</t>
+  </si>
+  <si>
+    <t>FacSupervisor</t>
+  </si>
+  <si>
+    <t>FacHireDate</t>
+  </si>
+  <si>
+    <t>FacZipCode</t>
+  </si>
+  <si>
+    <t>98111-9921</t>
+  </si>
+  <si>
+    <t>98011-2242</t>
+  </si>
+  <si>
+    <t>98121-0094</t>
+  </si>
+  <si>
+    <t>98015-9945</t>
+  </si>
+  <si>
+    <t>98114-1332</t>
+  </si>
+  <si>
+    <t>98114-9954</t>
   </si>
 </sst>
 </file>
@@ -145,13 +172,19 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,9 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -341,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,15 +528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75694-2931-42E5-A231-CCFDFC9DCD0E}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +567,17 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -550,8 +602,17 @@
       <c r="H2" s="1">
         <v>35000</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3">
+        <v>38087</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -576,8 +637,15 @@
       <c r="H3" s="1">
         <v>120000</v>
       </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
+        <v>38457</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -602,8 +670,17 @@
       <c r="H4" s="1">
         <v>70000</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3">
+        <v>37742</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -628,8 +705,15 @@
       <c r="H5" s="1">
         <v>65000</v>
       </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3">
+        <v>38818</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -654,8 +738,17 @@
       <c r="H6" s="1">
         <v>40000</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>39508</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -679,6 +772,15 @@
       </c>
       <c r="H7" s="1">
         <v>75000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>39887</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
